--- a/saved_excel/Extracted_statements_file.xlsx
+++ b/saved_excel/Extracted_statements_file.xlsx
@@ -1058,22 +1058,22 @@
         <v>104507.66</v>
       </c>
       <c r="E9">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F9">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="G9">
         <v>314.16</v>
       </c>
       <c r="H9">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="I9">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="J9">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="K9">
         <v>5263.16</v>
@@ -1082,10 +1082,10 @@
         <v>1658.16</v>
       </c>
       <c r="M9">
-        <v>15658.16</v>
+        <v>5658.16</v>
       </c>
       <c r="N9">
-        <v>352288.76</v>
+        <v>176377.76</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1099,37 +1099,37 @@
         <v>8556.337419354837</v>
       </c>
       <c r="D10">
-        <v>11850.44516129032</v>
+        <v>14288.44516129032</v>
       </c>
       <c r="E10">
-        <v>4718.660000000001</v>
+        <v>19387.66</v>
       </c>
       <c r="F10">
-        <v>15878.49870967742</v>
+        <v>10032.98258064515</v>
       </c>
       <c r="G10">
-        <v>29647.44516129033</v>
+        <v>2354.574193548387</v>
       </c>
       <c r="H10">
-        <v>70314.16</v>
+        <v>5231.160000000001</v>
       </c>
       <c r="I10">
-        <v>68045.96129032258</v>
+        <v>5062.412903225807</v>
       </c>
       <c r="J10">
-        <v>19139.35354838711</v>
+        <v>7832.966451612905</v>
       </c>
       <c r="K10">
         <v>1890.740645161291</v>
       </c>
       <c r="L10">
-        <v>2917.047741935484</v>
+        <v>3046.08</v>
       </c>
       <c r="M10">
-        <v>27441.35354838711</v>
+        <v>26796.19225806453</v>
       </c>
       <c r="N10">
-        <v>268320.4290322581</v>
+        <v>112399.9774193548</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -3742,16 +3742,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>44712</v>
+        <v>44690</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D5">
-        <v>100000</v>
+        <v>25509</v>
       </c>
       <c r="E5">
-        <v>104507.66</v>
+        <v>30016.66</v>
       </c>
       <c r="F5" t="s">
         <v>51</v>
@@ -3762,16 +3762,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>44690</v>
+        <v>44712</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D6">
-        <v>25509</v>
+        <v>100000</v>
       </c>
       <c r="E6">
-        <v>30016.66</v>
+        <v>104507.66</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -3782,16 +3782,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>44728</v>
+        <v>44737</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D7">
-        <v>12000</v>
+        <v>107</v>
       </c>
       <c r="E7">
-        <v>16507.66</v>
+        <v>4718.66</v>
       </c>
       <c r="F7" t="s">
         <v>51</v>
@@ -3802,16 +3802,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>44734</v>
+        <v>44728</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D8">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="E8">
-        <v>19387.66</v>
+        <v>16507.66</v>
       </c>
       <c r="F8" t="s">
         <v>51</v>
@@ -3822,16 +3822,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>44737</v>
+        <v>44734</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D9">
-        <v>107</v>
+        <v>15000</v>
       </c>
       <c r="E9">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F9" t="s">
         <v>51</v>
@@ -3922,16 +3922,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>44904</v>
+        <v>44902</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D14">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="E14">
-        <v>35255.16</v>
+        <v>25255.16</v>
       </c>
       <c r="F14" t="s">
         <v>51</v>
@@ -3942,16 +3942,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>44902</v>
+        <v>44904</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D15">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="E15">
-        <v>25255.16</v>
+        <v>35255.16</v>
       </c>
       <c r="F15" t="s">
         <v>51</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="B16" t="s">
         <v>61</v>
@@ -3971,7 +3971,7 @@
         <v>10000</v>
       </c>
       <c r="E16">
-        <v>11658.16</v>
+        <v>15658.16</v>
       </c>
       <c r="F16" t="s">
         <v>51</v>
@@ -3982,7 +3982,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>44984</v>
+        <v>44980</v>
       </c>
       <c r="B17" t="s">
         <v>61</v>
@@ -3991,7 +3991,7 @@
         <v>10000</v>
       </c>
       <c r="E17">
-        <v>15658.16</v>
+        <v>11658.16</v>
       </c>
       <c r="F17" t="s">
         <v>51</v>
@@ -4002,16 +4002,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>44988</v>
+        <v>45000</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D18">
-        <v>49000</v>
+        <v>120000</v>
       </c>
       <c r="E18">
-        <v>54658.16</v>
+        <v>125658.16</v>
       </c>
       <c r="F18" t="s">
         <v>51</v>
@@ -4022,16 +4022,16 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45000</v>
+        <v>45010</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D19">
-        <v>120000</v>
+        <v>63</v>
       </c>
       <c r="E19">
-        <v>125658.16</v>
+        <v>5638.16</v>
       </c>
       <c r="F19" t="s">
         <v>51</v>
@@ -4042,16 +4042,16 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45010</v>
+        <v>45013</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D20">
-        <v>63</v>
+        <v>50000</v>
       </c>
       <c r="E20">
-        <v>5638.16</v>
+        <v>55638.16</v>
       </c>
       <c r="F20" t="s">
         <v>51</v>
@@ -4062,16 +4062,16 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45013</v>
+        <v>44988</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D21">
-        <v>50000</v>
+        <v>49000</v>
       </c>
       <c r="E21">
-        <v>55638.16</v>
+        <v>54658.16</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
@@ -4198,16 +4198,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>44728</v>
+        <v>44735</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6">
-        <v>12120</v>
+        <v>1276</v>
       </c>
       <c r="E6">
-        <v>4387.66</v>
+        <v>14611.66</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -4238,16 +4238,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>44735</v>
+        <v>44728</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C8">
-        <v>1276</v>
+        <v>12120</v>
       </c>
       <c r="E8">
-        <v>14611.66</v>
+        <v>4387.66</v>
       </c>
       <c r="F8" t="s">
         <v>51</v>
@@ -5652,16 +5652,16 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2">
-        <v>44691</v>
+        <v>44690</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8">
+        <v>64</v>
+      </c>
+      <c r="D8">
         <v>25509</v>
       </c>
       <c r="E8">
-        <v>4507.66</v>
+        <v>30016.66</v>
       </c>
       <c r="F8" t="s">
         <v>92</v>
@@ -5670,7 +5670,7 @@
         <v>2</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" t="s">
         <v>51</v>
@@ -5678,16 +5678,16 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2">
-        <v>44712</v>
+        <v>44691</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9">
-        <v>100000</v>
+        <v>65</v>
+      </c>
+      <c r="C9">
+        <v>25509</v>
       </c>
       <c r="E9">
-        <v>104507.66</v>
+        <v>4507.66</v>
       </c>
       <c r="F9" t="s">
         <v>92</v>
@@ -5696,7 +5696,7 @@
         <v>2</v>
       </c>
       <c r="H9">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="I9" t="s">
         <v>51</v>
@@ -5704,16 +5704,16 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2">
-        <v>44690</v>
+        <v>44712</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D10">
-        <v>25509</v>
+        <v>100000</v>
       </c>
       <c r="E10">
-        <v>30016.66</v>
+        <v>104507.66</v>
       </c>
       <c r="F10" t="s">
         <v>92</v>
@@ -5722,7 +5722,7 @@
         <v>2</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s">
         <v>51</v>
@@ -5733,13 +5733,13 @@
         <v>44737</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11">
-        <v>10000</v>
+        <v>72</v>
+      </c>
+      <c r="D11">
+        <v>107</v>
       </c>
       <c r="E11">
-        <v>4611.66</v>
+        <v>4718.66</v>
       </c>
       <c r="F11" t="s">
         <v>92</v>
@@ -5756,16 +5756,16 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2">
-        <v>44715</v>
+        <v>44737</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C12">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="E12">
-        <v>4507.66</v>
+        <v>4611.66</v>
       </c>
       <c r="F12" t="s">
         <v>92</v>
@@ -5774,24 +5774,24 @@
         <v>3</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2">
-        <v>44728</v>
+        <v>44735</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13">
-        <v>12000</v>
+        <v>70</v>
+      </c>
+      <c r="C13">
+        <v>1276</v>
       </c>
       <c r="E13">
-        <v>16507.66</v>
+        <v>14611.66</v>
       </c>
       <c r="F13" t="s">
         <v>92</v>
@@ -5800,7 +5800,7 @@
         <v>3</v>
       </c>
       <c r="H13">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I13" t="s">
         <v>51</v>
@@ -5808,16 +5808,16 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2">
-        <v>44728</v>
+        <v>44734</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C14">
-        <v>12120</v>
+        <v>3500</v>
       </c>
       <c r="E14">
-        <v>4387.66</v>
+        <v>15887.66</v>
       </c>
       <c r="F14" t="s">
         <v>92</v>
@@ -5826,7 +5826,7 @@
         <v>3</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I14" t="s">
         <v>51</v>
@@ -5834,16 +5834,16 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2">
-        <v>44734</v>
+        <v>44728</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15">
-        <v>15000</v>
+        <v>68</v>
+      </c>
+      <c r="C15">
+        <v>12120</v>
       </c>
       <c r="E15">
-        <v>19387.66</v>
+        <v>4387.66</v>
       </c>
       <c r="F15" t="s">
         <v>92</v>
@@ -5852,7 +5852,7 @@
         <v>3</v>
       </c>
       <c r="H15">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I15" t="s">
         <v>51</v>
@@ -5860,16 +5860,16 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="2">
-        <v>44734</v>
+        <v>44728</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16">
-        <v>3500</v>
+        <v>67</v>
+      </c>
+      <c r="D16">
+        <v>12000</v>
       </c>
       <c r="E16">
-        <v>15887.66</v>
+        <v>16507.66</v>
       </c>
       <c r="F16" t="s">
         <v>92</v>
@@ -5878,7 +5878,7 @@
         <v>3</v>
       </c>
       <c r="H16">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I16" t="s">
         <v>51</v>
@@ -5886,16 +5886,16 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="2">
-        <v>44735</v>
+        <v>44715</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C17">
-        <v>1276</v>
+        <v>100000</v>
       </c>
       <c r="E17">
-        <v>14611.66</v>
+        <v>4507.66</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -5904,24 +5904,24 @@
         <v>3</v>
       </c>
       <c r="H17">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="2">
-        <v>44737</v>
+        <v>44734</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D18">
-        <v>107</v>
+        <v>15000</v>
       </c>
       <c r="E18">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F18" t="s">
         <v>92</v>
@@ -5930,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="H18">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I18" t="s">
         <v>51</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F19" t="s">
         <v>92</v>
@@ -5970,13 +5970,13 @@
         <v>44785</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20">
-        <v>34257</v>
+        <v>73</v>
+      </c>
+      <c r="D20">
+        <v>35000</v>
       </c>
       <c r="E20">
-        <v>5461.66</v>
+        <v>39718.66</v>
       </c>
       <c r="F20" t="s">
         <v>92</v>
@@ -5988,21 +5988,21 @@
         <v>12</v>
       </c>
       <c r="I20" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="2">
-        <v>44795</v>
+        <v>44785</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21">
-        <v>147.5</v>
+        <v>34257</v>
       </c>
       <c r="E21">
-        <v>5314.16</v>
+        <v>5461.66</v>
       </c>
       <c r="F21" t="s">
         <v>92</v>
@@ -6011,24 +6011,24 @@
         <v>5</v>
       </c>
       <c r="H21">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="2">
-        <v>44803</v>
+        <v>44795</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22">
-        <v>5000</v>
+        <v>147.5</v>
       </c>
       <c r="E22">
-        <v>314.16</v>
+        <v>5314.16</v>
       </c>
       <c r="F22" t="s">
         <v>92</v>
@@ -6037,7 +6037,7 @@
         <v>5</v>
       </c>
       <c r="H22">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I22" t="s">
         <v>51</v>
@@ -6045,16 +6045,16 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2">
-        <v>44785</v>
+        <v>44803</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23">
-        <v>35000</v>
+        <v>76</v>
+      </c>
+      <c r="C23">
+        <v>5000</v>
       </c>
       <c r="E23">
-        <v>39718.66</v>
+        <v>314.16</v>
       </c>
       <c r="F23" t="s">
         <v>92</v>
@@ -6063,7 +6063,7 @@
         <v>5</v>
       </c>
       <c r="H23">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I23" t="s">
         <v>51</v>
@@ -6071,16 +6071,16 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2">
-        <v>44829</v>
+        <v>44816</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24">
-        <v>24</v>
+        <v>77</v>
+      </c>
+      <c r="C24">
+        <v>5000</v>
       </c>
       <c r="E24">
-        <v>255.16</v>
+        <v>231.16</v>
       </c>
       <c r="F24" t="s">
         <v>92</v>
@@ -6089,7 +6089,7 @@
         <v>6</v>
       </c>
       <c r="H24">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I24" t="s">
         <v>51</v>
@@ -6097,16 +6097,16 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="2">
-        <v>44816</v>
+        <v>44829</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25">
-        <v>5000</v>
+        <v>72</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>231.16</v>
+        <v>255.16</v>
       </c>
       <c r="F25" t="s">
         <v>92</v>
@@ -6115,7 +6115,7 @@
         <v>6</v>
       </c>
       <c r="H25">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I25" t="s">
         <v>51</v>
@@ -6178,13 +6178,13 @@
         <v>44816</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28">
-        <v>19528</v>
+        <v>61</v>
+      </c>
+      <c r="D28">
+        <v>70000</v>
       </c>
       <c r="E28">
-        <v>5231.16</v>
+        <v>70314.16</v>
       </c>
       <c r="F28" t="s">
         <v>92</v>
@@ -6204,13 +6204,13 @@
         <v>44816</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29">
-        <v>70000</v>
+        <v>68</v>
+      </c>
+      <c r="C29">
+        <v>19528</v>
       </c>
       <c r="E29">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="F29" t="s">
         <v>92</v>
@@ -6239,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="F30" t="s">
         <v>92</v>
@@ -6268,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="F31" t="s">
         <v>92</v>
@@ -6285,13 +6285,13 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="2">
-        <v>44907</v>
+        <v>44904</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C32">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="E32">
         <v>5255.16</v>
@@ -6303,24 +6303,24 @@
         <v>9</v>
       </c>
       <c r="H32">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I32" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="2">
-        <v>44920</v>
+        <v>44907</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33">
-        <v>8</v>
+        <v>80</v>
+      </c>
+      <c r="C33">
+        <v>10000</v>
       </c>
       <c r="E33">
-        <v>5263.16</v>
+        <v>5255.16</v>
       </c>
       <c r="F33" t="s">
         <v>92</v>
@@ -6329,7 +6329,7 @@
         <v>9</v>
       </c>
       <c r="H33">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I33" t="s">
         <v>51</v>
@@ -6337,16 +6337,16 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="2">
-        <v>44904</v>
+        <v>44920</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D34">
-        <v>35000</v>
+        <v>8</v>
       </c>
       <c r="E34">
-        <v>35255.16</v>
+        <v>5263.16</v>
       </c>
       <c r="F34" t="s">
         <v>92</v>
@@ -6355,7 +6355,7 @@
         <v>9</v>
       </c>
       <c r="H34">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I34" t="s">
         <v>51</v>
@@ -6366,13 +6366,13 @@
         <v>44902</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35">
+        <v>61</v>
+      </c>
+      <c r="D35">
         <v>25000</v>
       </c>
       <c r="E35">
-        <v>255.16</v>
+        <v>25255.16</v>
       </c>
       <c r="F35" t="s">
         <v>92</v>
@@ -6389,16 +6389,16 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="2">
-        <v>44902</v>
+        <v>44904</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D36">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="E36">
-        <v>25255.16</v>
+        <v>35255.16</v>
       </c>
       <c r="F36" t="s">
         <v>92</v>
@@ -6407,7 +6407,7 @@
         <v>9</v>
       </c>
       <c r="H36">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I36" t="s">
         <v>51</v>
@@ -6415,16 +6415,16 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="2">
-        <v>44904</v>
+        <v>44902</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C37">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="E37">
-        <v>5255.16</v>
+        <v>255.16</v>
       </c>
       <c r="F37" t="s">
         <v>92</v>
@@ -6433,10 +6433,10 @@
         <v>9</v>
       </c>
       <c r="H37">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I37" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -6467,7 +6467,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="2">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="B39" t="s">
         <v>61</v>
@@ -6476,7 +6476,7 @@
         <v>10000</v>
       </c>
       <c r="E39">
-        <v>11658.16</v>
+        <v>15658.16</v>
       </c>
       <c r="F39" t="s">
         <v>92</v>
@@ -6485,7 +6485,7 @@
         <v>11</v>
       </c>
       <c r="H39">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I39" t="s">
         <v>51</v>
@@ -6519,16 +6519,16 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="2">
-        <v>44984</v>
+        <v>44980</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41">
+        <v>61</v>
+      </c>
+      <c r="D41">
         <v>10000</v>
       </c>
       <c r="E41">
-        <v>5658.16</v>
+        <v>11658.16</v>
       </c>
       <c r="F41" t="s">
         <v>92</v>
@@ -6537,7 +6537,7 @@
         <v>11</v>
       </c>
       <c r="H41">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I41" t="s">
         <v>51</v>
@@ -6548,13 +6548,13 @@
         <v>44984</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42">
+        <v>83</v>
+      </c>
+      <c r="C42">
         <v>10000</v>
       </c>
       <c r="E42">
-        <v>15658.16</v>
+        <v>5658.16</v>
       </c>
       <c r="F42" t="s">
         <v>92</v>
@@ -6571,16 +6571,16 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="2">
-        <v>44988</v>
+        <v>44992</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43">
+        <v>85</v>
+      </c>
+      <c r="C43">
         <v>49000</v>
       </c>
       <c r="E43">
-        <v>54658.16</v>
+        <v>5658.16</v>
       </c>
       <c r="F43" t="s">
         <v>92</v>
@@ -6589,7 +6589,7 @@
         <v>12</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I43" t="s">
         <v>51</v>
@@ -6597,16 +6597,16 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="2">
-        <v>44992</v>
+        <v>45000</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44">
-        <v>49000</v>
+        <v>86</v>
+      </c>
+      <c r="D44">
+        <v>120000</v>
       </c>
       <c r="E44">
-        <v>5658.16</v>
+        <v>125658.16</v>
       </c>
       <c r="F44" t="s">
         <v>92</v>
@@ -6615,7 +6615,7 @@
         <v>12</v>
       </c>
       <c r="H44">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
         <v>51</v>
@@ -6623,16 +6623,16 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="2">
-        <v>45000</v>
+        <v>45003</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45">
-        <v>120000</v>
+        <v>87</v>
+      </c>
+      <c r="C45">
+        <v>120083</v>
       </c>
       <c r="E45">
-        <v>125658.16</v>
+        <v>5575.16</v>
       </c>
       <c r="F45" t="s">
         <v>92</v>
@@ -6641,7 +6641,7 @@
         <v>12</v>
       </c>
       <c r="H45">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I45" t="s">
         <v>51</v>
@@ -6649,16 +6649,16 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="2">
-        <v>45003</v>
+        <v>45010</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46">
-        <v>120083</v>
+        <v>72</v>
+      </c>
+      <c r="D46">
+        <v>63</v>
       </c>
       <c r="E46">
-        <v>5575.16</v>
+        <v>5638.16</v>
       </c>
       <c r="F46" t="s">
         <v>92</v>
@@ -6667,7 +6667,7 @@
         <v>12</v>
       </c>
       <c r="H46">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I46" t="s">
         <v>51</v>
@@ -6675,16 +6675,16 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="2">
-        <v>45010</v>
+        <v>45013</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D47">
-        <v>63</v>
+        <v>50000</v>
       </c>
       <c r="E47">
-        <v>5638.16</v>
+        <v>55638.16</v>
       </c>
       <c r="F47" t="s">
         <v>92</v>
@@ -6693,7 +6693,7 @@
         <v>12</v>
       </c>
       <c r="H47">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I47" t="s">
         <v>51</v>
@@ -6701,16 +6701,16 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="2">
-        <v>45013</v>
+        <v>45015</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
-      </c>
-      <c r="D48">
+        <v>89</v>
+      </c>
+      <c r="C48">
         <v>50000</v>
       </c>
       <c r="E48">
-        <v>55638.16</v>
+        <v>5638.16</v>
       </c>
       <c r="F48" t="s">
         <v>92</v>
@@ -6719,7 +6719,7 @@
         <v>12</v>
       </c>
       <c r="H48">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I48" t="s">
         <v>51</v>
@@ -6727,16 +6727,16 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="2">
-        <v>45015</v>
+        <v>44988</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49">
-        <v>50000</v>
+        <v>84</v>
+      </c>
+      <c r="D49">
+        <v>49000</v>
       </c>
       <c r="E49">
-        <v>5638.16</v>
+        <v>54658.16</v>
       </c>
       <c r="F49" t="s">
         <v>92</v>
@@ -6745,7 +6745,7 @@
         <v>12</v>
       </c>
       <c r="H49">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I49" t="s">
         <v>51</v>
@@ -6819,22 +6819,22 @@
         <v>104507.66</v>
       </c>
       <c r="E2">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F2">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="G2">
         <v>314.16</v>
       </c>
       <c r="H2">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="I2">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="J2">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="K2">
         <v>5263.16</v>
@@ -6843,7 +6843,7 @@
         <v>1658.16</v>
       </c>
       <c r="M2">
-        <v>15658.16</v>
+        <v>5658.16</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -6860,22 +6860,22 @@
         <v>104507.66</v>
       </c>
       <c r="E3">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F3">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="G3">
         <v>314.16</v>
       </c>
       <c r="H3">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="I3">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="J3">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="K3">
         <v>5263.16</v>
@@ -6884,7 +6884,7 @@
         <v>1658.16</v>
       </c>
       <c r="M3">
-        <v>15658.16</v>
+        <v>5658.16</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -6901,22 +6901,22 @@
         <v>4507.66</v>
       </c>
       <c r="E4">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F4">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="G4">
         <v>314.16</v>
       </c>
       <c r="H4">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="I4">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="J4">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="K4">
         <v>1658.16</v>
@@ -6942,22 +6942,22 @@
         <v>4507.66</v>
       </c>
       <c r="E5">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F5">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="G5">
         <v>314.16</v>
       </c>
       <c r="H5">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="I5">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="J5">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="K5">
         <v>1658.16</v>
@@ -6983,22 +6983,22 @@
         <v>4507.66</v>
       </c>
       <c r="E6">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F6">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="G6">
         <v>314.16</v>
       </c>
       <c r="H6">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="I6">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="J6">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="K6">
         <v>1658.16</v>
@@ -7024,22 +7024,22 @@
         <v>4507.66</v>
       </c>
       <c r="E7">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F7">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="G7">
         <v>314.16</v>
       </c>
       <c r="H7">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="I7">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="J7">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="K7">
         <v>1658.16</v>
@@ -7065,22 +7065,22 @@
         <v>4507.66</v>
       </c>
       <c r="E8">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F8">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="G8">
         <v>314.16</v>
       </c>
       <c r="H8">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="I8">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="J8">
-        <v>25255.16</v>
+        <v>255.16</v>
       </c>
       <c r="K8">
         <v>1658.16</v>
@@ -7106,22 +7106,22 @@
         <v>4507.66</v>
       </c>
       <c r="E9">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F9">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="G9">
         <v>314.16</v>
       </c>
       <c r="H9">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="I9">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="J9">
-        <v>25255.16</v>
+        <v>255.16</v>
       </c>
       <c r="K9">
         <v>1658.16</v>
@@ -7147,22 +7147,22 @@
         <v>4507.66</v>
       </c>
       <c r="E10">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F10">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="G10">
         <v>314.16</v>
       </c>
       <c r="H10">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="I10">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="J10">
-        <v>5255.16</v>
+        <v>35255.16</v>
       </c>
       <c r="K10">
         <v>1658.16</v>
@@ -7188,22 +7188,22 @@
         <v>4507.66</v>
       </c>
       <c r="E11">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F11">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="G11">
         <v>314.16</v>
       </c>
       <c r="H11">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="I11">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="J11">
-        <v>5255.16</v>
+        <v>35255.16</v>
       </c>
       <c r="K11">
         <v>1658.16</v>
@@ -7229,22 +7229,22 @@
         <v>4507.66</v>
       </c>
       <c r="E12">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F12">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="G12">
         <v>314.16</v>
       </c>
       <c r="H12">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="I12">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="J12">
-        <v>5255.16</v>
+        <v>35255.16</v>
       </c>
       <c r="K12">
         <v>1658.16</v>
@@ -7270,19 +7270,19 @@
         <v>4507.66</v>
       </c>
       <c r="E13">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F13">
-        <v>39718.66</v>
+        <v>5461.66</v>
       </c>
       <c r="G13">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="H13">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="I13">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="J13">
         <v>5255.16</v>
@@ -7311,19 +7311,19 @@
         <v>4507.66</v>
       </c>
       <c r="E14">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F14">
-        <v>39718.66</v>
+        <v>5461.66</v>
       </c>
       <c r="G14">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="H14">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="I14">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="J14">
         <v>5255.16</v>
@@ -7352,19 +7352,19 @@
         <v>4507.66</v>
       </c>
       <c r="E15">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F15">
-        <v>39718.66</v>
+        <v>5461.66</v>
       </c>
       <c r="G15">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="H15">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="I15">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="J15">
         <v>5255.16</v>
@@ -7393,19 +7393,19 @@
         <v>4507.66</v>
       </c>
       <c r="E16">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F16">
-        <v>39718.66</v>
+        <v>5461.66</v>
       </c>
       <c r="G16">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="H16">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="I16">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="J16">
         <v>5255.16</v>
@@ -7431,22 +7431,22 @@
         <v>4507.66</v>
       </c>
       <c r="D17">
-        <v>4387.66</v>
+        <v>16507.66</v>
       </c>
       <c r="E17">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F17">
-        <v>39718.66</v>
+        <v>5461.66</v>
       </c>
       <c r="G17">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="H17">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="I17">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="J17">
         <v>5255.16</v>
@@ -7472,22 +7472,22 @@
         <v>4507.66</v>
       </c>
       <c r="D18">
-        <v>4387.66</v>
+        <v>16507.66</v>
       </c>
       <c r="E18">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F18">
-        <v>39718.66</v>
+        <v>5461.66</v>
       </c>
       <c r="G18">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="H18">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="I18">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="J18">
         <v>5255.16</v>
@@ -7513,22 +7513,22 @@
         <v>4507.66</v>
       </c>
       <c r="D19">
-        <v>4387.66</v>
+        <v>16507.66</v>
       </c>
       <c r="E19">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F19">
-        <v>39718.66</v>
+        <v>5461.66</v>
       </c>
       <c r="G19">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="H19">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="I19">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="J19">
         <v>5255.16</v>
@@ -7554,22 +7554,22 @@
         <v>4507.66</v>
       </c>
       <c r="D20">
-        <v>4387.66</v>
+        <v>16507.66</v>
       </c>
       <c r="E20">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F20">
-        <v>39718.66</v>
+        <v>5461.66</v>
       </c>
       <c r="G20">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="H20">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="I20">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="J20">
         <v>5255.16</v>
@@ -7595,22 +7595,22 @@
         <v>4507.66</v>
       </c>
       <c r="D21">
-        <v>4387.66</v>
+        <v>16507.66</v>
       </c>
       <c r="E21">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F21">
-        <v>39718.66</v>
+        <v>5461.66</v>
       </c>
       <c r="G21">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="H21">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="I21">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="J21">
         <v>5255.16</v>
@@ -7636,22 +7636,22 @@
         <v>4507.66</v>
       </c>
       <c r="D22">
-        <v>4387.66</v>
+        <v>16507.66</v>
       </c>
       <c r="E22">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F22">
-        <v>39718.66</v>
+        <v>5461.66</v>
       </c>
       <c r="G22">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="H22">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="I22">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="J22">
         <v>5255.16</v>
@@ -7677,22 +7677,22 @@
         <v>4507.66</v>
       </c>
       <c r="D23">
-        <v>15887.66</v>
+        <v>19387.66</v>
       </c>
       <c r="E23">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F23">
         <v>5314.16</v>
       </c>
       <c r="G23">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="H23">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="I23">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="J23">
         <v>5255.16</v>
@@ -7721,19 +7721,19 @@
         <v>14611.66</v>
       </c>
       <c r="E24">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F24">
         <v>5314.16</v>
       </c>
       <c r="G24">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="H24">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="I24">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="J24">
         <v>5255.16</v>
@@ -7742,7 +7742,7 @@
         <v>1658.16</v>
       </c>
       <c r="L24">
-        <v>5658.16</v>
+        <v>11658.16</v>
       </c>
       <c r="M24">
         <v>5575.16</v>
@@ -7762,19 +7762,19 @@
         <v>14611.66</v>
       </c>
       <c r="E25">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F25">
         <v>5314.16</v>
       </c>
       <c r="G25">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="H25">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="I25">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="J25">
         <v>5255.16</v>
@@ -7783,7 +7783,7 @@
         <v>1658.16</v>
       </c>
       <c r="L25">
-        <v>5658.16</v>
+        <v>11658.16</v>
       </c>
       <c r="M25">
         <v>5575.16</v>
@@ -7800,10 +7800,10 @@
         <v>4507.66</v>
       </c>
       <c r="D26">
-        <v>4718.66</v>
+        <v>4611.66</v>
       </c>
       <c r="E26">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F26">
         <v>5314.16</v>
@@ -7812,10 +7812,10 @@
         <v>255.16</v>
       </c>
       <c r="H26">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="I26">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="J26">
         <v>5263.16</v>
@@ -7824,7 +7824,7 @@
         <v>1658.16</v>
       </c>
       <c r="L26">
-        <v>5658.16</v>
+        <v>11658.16</v>
       </c>
       <c r="M26">
         <v>5638.16</v>
@@ -7841,10 +7841,10 @@
         <v>4507.66</v>
       </c>
       <c r="D27">
-        <v>4718.66</v>
+        <v>4611.66</v>
       </c>
       <c r="E27">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F27">
         <v>5314.16</v>
@@ -7853,10 +7853,10 @@
         <v>255.16</v>
       </c>
       <c r="H27">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="I27">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="J27">
         <v>5263.16</v>
@@ -7865,7 +7865,7 @@
         <v>1658.16</v>
       </c>
       <c r="L27">
-        <v>5658.16</v>
+        <v>11658.16</v>
       </c>
       <c r="M27">
         <v>5638.16</v>
@@ -7882,10 +7882,10 @@
         <v>4507.66</v>
       </c>
       <c r="D28">
-        <v>4718.66</v>
+        <v>4611.66</v>
       </c>
       <c r="E28">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F28">
         <v>5314.16</v>
@@ -7894,10 +7894,10 @@
         <v>255.16</v>
       </c>
       <c r="H28">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="I28">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="J28">
         <v>5263.16</v>
@@ -7906,7 +7906,7 @@
         <v>1658.16</v>
       </c>
       <c r="L28">
-        <v>15658.16</v>
+        <v>5658.16</v>
       </c>
       <c r="M28">
         <v>5638.16</v>
@@ -7923,10 +7923,10 @@
         <v>4507.66</v>
       </c>
       <c r="D29">
-        <v>4718.66</v>
+        <v>4611.66</v>
       </c>
       <c r="E29">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F29">
         <v>5314.16</v>
@@ -7935,10 +7935,10 @@
         <v>255.16</v>
       </c>
       <c r="H29">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="I29">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="J29">
         <v>5263.16</v>
@@ -7947,7 +7947,7 @@
         <v>1658.16</v>
       </c>
       <c r="L29">
-        <v>15658.16</v>
+        <v>5658.16</v>
       </c>
       <c r="M29">
         <v>55638.16</v>
@@ -7964,10 +7964,10 @@
         <v>4507.66</v>
       </c>
       <c r="D30">
-        <v>4718.66</v>
+        <v>4611.66</v>
       </c>
       <c r="E30">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F30">
         <v>5314.16</v>
@@ -7976,10 +7976,10 @@
         <v>255.16</v>
       </c>
       <c r="H30">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="I30">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="J30">
         <v>5263.16</v>
@@ -8005,10 +8005,10 @@
         <v>4507.66</v>
       </c>
       <c r="D31">
-        <v>4718.66</v>
+        <v>4611.66</v>
       </c>
       <c r="E31">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F31">
         <v>314.16</v>
@@ -8017,10 +8017,10 @@
         <v>255.16</v>
       </c>
       <c r="H31">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="I31">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="J31">
         <v>5263.16</v>
@@ -8049,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F32">
         <v>314.16</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -8087,34 +8087,34 @@
         <v>265246.46</v>
       </c>
       <c r="D33">
-        <v>367363.7999999999</v>
+        <v>442941.7999999999</v>
       </c>
       <c r="E33">
-        <v>146278.46</v>
+        <v>601017.46</v>
       </c>
       <c r="F33">
-        <v>492233.4599999999</v>
+        <v>311022.4599999998</v>
       </c>
       <c r="G33">
-        <v>919070.8000000003</v>
+        <v>72991.80000000002</v>
       </c>
       <c r="H33">
-        <v>2179738.96</v>
+        <v>162165.96</v>
       </c>
       <c r="I33">
-        <v>2109424.8</v>
+        <v>156934.8</v>
       </c>
       <c r="J33">
-        <v>593319.9600000003</v>
+        <v>242821.9600000001</v>
       </c>
       <c r="K33">
         <v>58612.96000000002</v>
       </c>
       <c r="L33">
-        <v>90428.48000000001</v>
+        <v>94428.48000000001</v>
       </c>
       <c r="M33">
-        <v>850681.9600000003</v>
+        <v>830681.9600000003</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -8128,34 +8128,34 @@
         <v>8556.337419354837</v>
       </c>
       <c r="D34">
-        <v>11850.44516129032</v>
+        <v>14288.44516129032</v>
       </c>
       <c r="E34">
-        <v>4718.660000000001</v>
+        <v>19387.66</v>
       </c>
       <c r="F34">
-        <v>15878.49870967742</v>
+        <v>10032.98258064515</v>
       </c>
       <c r="G34">
-        <v>29647.44516129033</v>
+        <v>2354.574193548387</v>
       </c>
       <c r="H34">
-        <v>70314.16</v>
+        <v>5231.160000000001</v>
       </c>
       <c r="I34">
-        <v>68045.96129032258</v>
+        <v>5062.412903225807</v>
       </c>
       <c r="J34">
-        <v>19139.35354838711</v>
+        <v>7832.966451612905</v>
       </c>
       <c r="K34">
         <v>1890.740645161291</v>
       </c>
       <c r="L34">
-        <v>2917.047741935484</v>
+        <v>3046.08</v>
       </c>
       <c r="M34">
-        <v>27441.35354838711</v>
+        <v>26796.19225806453</v>
       </c>
     </row>
   </sheetData>
@@ -8229,22 +8229,22 @@
         <v>104507.66</v>
       </c>
       <c r="E2">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F2">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="G2">
         <v>314.16</v>
       </c>
       <c r="H2">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="I2">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="J2">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="K2">
         <v>5263.16</v>
@@ -8253,10 +8253,10 @@
         <v>1658.16</v>
       </c>
       <c r="M2">
-        <v>15658.16</v>
+        <v>5658.16</v>
       </c>
       <c r="N2">
-        <v>352288.76</v>
+        <v>176377.76</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -8270,10 +8270,10 @@
         <v>104507.66</v>
       </c>
       <c r="D3">
-        <v>4718.66</v>
+        <v>4611.66</v>
       </c>
       <c r="E3">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F3">
         <v>314.16</v>
@@ -8282,10 +8282,10 @@
         <v>255.16</v>
       </c>
       <c r="H3">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="I3">
-        <v>70314.16</v>
+        <v>5231.16</v>
       </c>
       <c r="J3">
         <v>5263.16</v>
@@ -8294,13 +8294,13 @@
         <v>1658.16</v>
       </c>
       <c r="L3">
-        <v>15658.16</v>
+        <v>5658.16</v>
       </c>
       <c r="M3">
         <v>5638.16</v>
       </c>
       <c r="N3">
-        <v>287867.9199999999</v>
+        <v>162263.92</v>
       </c>
     </row>
   </sheetData>
@@ -8465,19 +8465,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>44715</v>
+        <v>44735</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C7">
-        <v>100000</v>
+        <v>1276</v>
       </c>
       <c r="E7">
-        <v>4507.66</v>
+        <v>14611.66</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
         <v>92</v>
@@ -8485,16 +8485,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>44728</v>
+        <v>44734</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8">
-        <v>12120</v>
+        <v>3500</v>
       </c>
       <c r="E8">
-        <v>4387.66</v>
+        <v>15887.66</v>
       </c>
       <c r="F8" t="s">
         <v>51</v>
@@ -8505,16 +8505,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>44734</v>
+        <v>44728</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9">
-        <v>3500</v>
+        <v>12120</v>
       </c>
       <c r="E9">
-        <v>15887.66</v>
+        <v>4387.66</v>
       </c>
       <c r="F9" t="s">
         <v>51</v>
@@ -8525,19 +8525,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>44735</v>
+        <v>44715</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C10">
-        <v>1276</v>
+        <v>100000</v>
       </c>
       <c r="E10">
-        <v>14611.66</v>
+        <v>4507.66</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="G10" t="s">
         <v>92</v>
@@ -8685,19 +8685,19 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>44907</v>
+        <v>44904</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C18">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="E18">
         <v>5255.16</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s">
         <v>92</v>
@@ -8705,16 +8705,16 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>44902</v>
+        <v>44907</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C19">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="E19">
-        <v>255.16</v>
+        <v>5255.16</v>
       </c>
       <c r="F19" t="s">
         <v>51</v>
@@ -8725,19 +8725,19 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>44904</v>
+        <v>44902</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C20">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="E20">
-        <v>5255.16</v>
+        <v>255.16</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="G20" t="s">
         <v>92</v>
@@ -8961,16 +8961,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>44712</v>
+        <v>44690</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D5">
-        <v>100000</v>
+        <v>25509</v>
       </c>
       <c r="E5">
-        <v>104507.66</v>
+        <v>30016.66</v>
       </c>
       <c r="F5" t="s">
         <v>51</v>
@@ -8981,16 +8981,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>44690</v>
+        <v>44712</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D6">
-        <v>25509</v>
+        <v>100000</v>
       </c>
       <c r="E6">
-        <v>30016.66</v>
+        <v>104507.66</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -9001,16 +9001,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>44728</v>
+        <v>44737</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D7">
-        <v>12000</v>
+        <v>107</v>
       </c>
       <c r="E7">
-        <v>16507.66</v>
+        <v>4718.66</v>
       </c>
       <c r="F7" t="s">
         <v>51</v>
@@ -9021,16 +9021,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>44734</v>
+        <v>44728</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D8">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="E8">
-        <v>19387.66</v>
+        <v>16507.66</v>
       </c>
       <c r="F8" t="s">
         <v>51</v>
@@ -9041,16 +9041,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>44737</v>
+        <v>44734</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D9">
-        <v>107</v>
+        <v>15000</v>
       </c>
       <c r="E9">
-        <v>4718.66</v>
+        <v>19387.66</v>
       </c>
       <c r="F9" t="s">
         <v>51</v>
@@ -9141,16 +9141,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>44904</v>
+        <v>44902</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D14">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="E14">
-        <v>35255.16</v>
+        <v>25255.16</v>
       </c>
       <c r="F14" t="s">
         <v>51</v>
@@ -9161,16 +9161,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>44902</v>
+        <v>44904</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D15">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="E15">
-        <v>25255.16</v>
+        <v>35255.16</v>
       </c>
       <c r="F15" t="s">
         <v>51</v>
@@ -9181,7 +9181,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="B16" t="s">
         <v>61</v>
@@ -9190,7 +9190,7 @@
         <v>10000</v>
       </c>
       <c r="E16">
-        <v>11658.16</v>
+        <v>15658.16</v>
       </c>
       <c r="F16" t="s">
         <v>51</v>
@@ -9201,7 +9201,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>44984</v>
+        <v>44980</v>
       </c>
       <c r="B17" t="s">
         <v>61</v>
@@ -9210,7 +9210,7 @@
         <v>10000</v>
       </c>
       <c r="E17">
-        <v>15658.16</v>
+        <v>11658.16</v>
       </c>
       <c r="F17" t="s">
         <v>51</v>
@@ -9221,16 +9221,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>44988</v>
+        <v>45000</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D18">
-        <v>49000</v>
+        <v>120000</v>
       </c>
       <c r="E18">
-        <v>54658.16</v>
+        <v>125658.16</v>
       </c>
       <c r="F18" t="s">
         <v>51</v>
@@ -9241,16 +9241,16 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45000</v>
+        <v>45010</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D19">
-        <v>120000</v>
+        <v>63</v>
       </c>
       <c r="E19">
-        <v>125658.16</v>
+        <v>5638.16</v>
       </c>
       <c r="F19" t="s">
         <v>51</v>
@@ -9261,16 +9261,16 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45010</v>
+        <v>45013</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D20">
-        <v>63</v>
+        <v>50000</v>
       </c>
       <c r="E20">
-        <v>5638.16</v>
+        <v>55638.16</v>
       </c>
       <c r="F20" t="s">
         <v>51</v>
@@ -9281,16 +9281,16 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45013</v>
+        <v>44988</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D21">
-        <v>50000</v>
+        <v>49000</v>
       </c>
       <c r="E21">
-        <v>55638.16</v>
+        <v>54658.16</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
